--- a/Data/mission1_predict.xlsx
+++ b/Data/mission1_predict.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10814"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CRonaldo1985\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alanlau/Workplace/Competitions/ISI-WorldCup/ISI-WorldCup2019/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AF9F990-3F18-4F93-860F-EF4B5C702421}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26B76D9D-C79C-1A45-A7C9-8C11CC7CB6B9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{9CA7A372-DC8E-42C1-80C5-F6BA11184DDF}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15840" xr2:uid="{9CA7A372-DC8E-42C1-80C5-F6BA11184DDF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
@@ -39,14 +39,14 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -81,78 +81,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -165,14 +97,14 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="CAEACE"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -464,12 +396,12 @@
   <dimension ref="A1:B523"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B1" sqref="B1:B2995"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.625" customWidth="1"/>
+    <col min="1" max="1" width="14.6640625" customWidth="1"/>
     <col min="2" max="2" width="23.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
